--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3711.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3711.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.318896754868033</v>
+        <v>1.169409036636353</v>
       </c>
       <c r="B1">
-        <v>2.656541921200409</v>
+        <v>2.926520586013794</v>
       </c>
       <c r="C1">
-        <v>6.797448951297237</v>
+        <v>4.455004215240479</v>
       </c>
       <c r="D1">
-        <v>2.111836889018901</v>
+        <v>1.958391785621643</v>
       </c>
       <c r="E1">
-        <v>1.057325029812823</v>
+        <v>1.161061525344849</v>
       </c>
     </row>
   </sheetData>
